--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/sommatie_stoffen/sommatie_stoffen.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/sommatie_stoffen/sommatie_stoffen.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16120" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16120" uniqueCount="1596">
   <si>
     <t>uri</t>
   </si>
@@ -4800,6 +4800,9 @@
   </si>
   <si>
     <t>https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/1_2-dichloorethaan_vinylchloride|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/111cea_112cea|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/11cea__12cea|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/1235_1245cbz|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/12cbz_13cbz|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/12cbz_14cbz|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/1buteen__|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/1c2_3_4nibzs|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/2_3_4cfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/23_35myfol_4eyfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/2345_2346cfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/24_25-cfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/24_25myfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/3_4cfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/3_4eyfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/3_4myfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/4eyfol___35myfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/7_metalen_opg_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/7_metalen_totaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/8_metalen_totaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/9_metalen_totaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ac_acrol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/acrylaatpolymeren|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/adeidrin|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c10_vertakt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c11|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c11_vertakt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c12_vertakt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c13|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c13_vertakt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c14|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c14_vertakt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c15|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c15_vertakt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c16|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c17|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aeo_c18|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aes|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aisurf|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/al_comp_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alcoholen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alif__ox|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alifatenec5totec6|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alifatengroterdanec10totec12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alifatengroterdanec12totec16|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alifatengroterdanec16totec21|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alifatengroterdanec21totec35|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alifatengroterdanec6totec8|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alifatengroterdanec8totec10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alk__gt_c13|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alk_c|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alk_c10-12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alk_c10-14|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/alkanen_alkenen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/anionischedetergenten|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/anionischeoppervlakteactievestoffen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/anmvos_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aox|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c11|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c13|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c14|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c15|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c16|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c17|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c18|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c19|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c6|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c7|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c8|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apeo_c9|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apolairekoolwaterstoffen_fractiec10-c12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apolairekoolwaterstoffen_fractiec12-c20|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apolairekoolwaterstoffen_fractiec20-c30|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/apolairekoolwaterstoffen_fractiec30-c40|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/arom__gt_c13|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/arom_c10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/arom_c9|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/arom_c9-c10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/arom_kws__mak___pak|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/arom_vlucht|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/arom_vlucht_i|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromaten|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatenc10som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatenc11|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatenc12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatenc13|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatenc9som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatengroterdanec10totec12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatengroterdanec12totec13|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatengroterdanec12totec16|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatengroterdanec16totec21|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatengroterdanec21totec35|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatengroterdanec6totec8|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/aromatengroteredanec8totec10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/arseentrioxideenarseenpentoxide_as|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/as|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/as_co_ni_cd_se_cr.vi|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/as_co_ni_cd_se_cr.vi_sb_pb_cr.iii_cu_mn_v_sn|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/asbest|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ash3_sbh3|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/bap___bbflu_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/basurf|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/bc|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/bde|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/bde_85_154|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/bde_t_6|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/benzine|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/bflu_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/biociden|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/bjflu_bep|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/bpe___ip_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/br-_i-|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/bs|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/btbdpe|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/btex|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/buta_tria_ala_acet|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/butanol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c10eo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c10peo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c11eo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c12admba|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c12eo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c12quin|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c13eo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c14admba|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c14atma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c14dadma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c14eo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c14isoquin|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c14pyr|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c14quin|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c15eo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c16:1admba|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c16:1atma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c16admba|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c16eo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c16isoquin|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c16quin|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18:1admba|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18:1atma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18:1dadma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18:2admba|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18:2atma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18:2dadma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18admba|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18atma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18dadma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18eo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18isoquin|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18pyr|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c18quin|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/c9peo|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/calux|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/can_i|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cans|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cbzsom|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ccl4|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cd_cr_cu_ni_pb_zn|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cd_tl|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cfk|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cfk_ind|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cfk_tot|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cfols|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/chol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cl|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cl__gebonden|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cl_an_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cl_en_so4|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cl_ot|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cl_v|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cl-verb|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/clfvfs|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/clfyl_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cnitol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cnyl_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/co_cr_cu_ni_pb_zn|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/co_cr_ni_pb_zn|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cr_cu_ni_pb_zn|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cr_zn_mn_cu|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cresol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cresol_c|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ctine|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ctols|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cu__pb__ni__zn|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cu_ni_cd_cr_pb|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cu_ni_zn_cr|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/cyalk|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/d13c|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/d15n|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dbt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dbysn_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dcan_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dcbz|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dcbzdines|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dcdfytcea|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dcee|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dcpa|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ddd_e_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ddt__dde_en_isom|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ddt_2_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ddt_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/det_met_gisting|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/det_zonder_gisting|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dicnibzsom|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/diesel|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dieselolie|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dinyft_didyft|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dinyftofdidyft|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dioxineachtigepcb|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dioxinenenfuranen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dioxines|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dmyfol_eyfol_2ipyfol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dmyfol_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dn_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/doc|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/dyfolet|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/eas_ttcee|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/eox|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/epkalifatentotaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/epkaromatentotaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/epktotaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/es_ccl4|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/es_pe|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/es_ttcee|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/extrah__st_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/eyfol_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/f_an_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/f-verb|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/fe_al|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/fijn_stof|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/fol_c|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/fol_c__i|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/fol_get_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/fol_h2o_vlucht|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/fol_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/fosfor_totaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ftal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ftal_excl_dehp|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/fuh_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/furanen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/gechl__arom|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/gechlor__oplosm_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/h3o_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/halonen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/hcdbd_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/hcdbfur_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/hcfk|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/hch|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/hfk|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/hpc_epx|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/hpcdbd_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/hpcepx|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/hpo3²-|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ipytol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kalk_os|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kationischedetergenten|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kisurf|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kjn|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kjn__f|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_al|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_ap_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_ar|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_c10-12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_c12-20|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_c20-30|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_c30-40|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_nm|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/kws_t_vlucht|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/las/abs|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/latex|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/m_ol_kws|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mak_i|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mak_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mbas|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mercapt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/met_ex_zn_fe_mn_pb_a|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/met_excl_zn_fe_mn_al|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/metalen_excl__al_fe|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/metalenenmetalloidenmetuitzonderingvankwik|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/min_oliec10-c40|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/min_oliec6-c10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec10-c12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec10-c16|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec10-c20|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec10-c25|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec10-c40|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec12-c14|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec12-c16|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec12-c22|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec14-c20|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec16-c20|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec16-c22|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec17|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec2-c6|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec20-c24|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec20-c26|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec20-c30|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec22-c30|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec24-c28|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec25-c40|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec26-c34|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec28-c32|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec30-c36|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec30-c40|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec32-c36|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec34-c40|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec36-c40|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec5-c8|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec5-c9|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec6-c10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec6-c12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec6-c16|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec6-c40|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec6-c8|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec8-c10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec8-c12|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliec9-c15|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliegroterdanc15|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleoliekleinerdanc25|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mineraleolievluchtigtotaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mno4_k|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mno4_kf|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mno4_w|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mno4_wf|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/mpxyl|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/n_n|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/n_n_n|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/n_o|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/n_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/n-fenol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/na-zouten|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/naftenaten|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/neg_anmvos|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/neg_nmvos|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/neg_oasf|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/neg_xnmvos|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nh3_no2-|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nh4_zt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/niet-ionischedetergenten|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/niet-ionogeneenkationischeoppervlakteactievestoffen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nisurf|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nmvos_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nox|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nox_no2|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/npoc|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nso|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nvooc|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nvtoc|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nyfol_et|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nyfolet|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/nyfolsom|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/oasf_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/oc|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ocp_i|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ocp_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ocp_t_imjv|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ol_water|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/olie|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/oliënenvetten|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/oliezuur|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/om|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/omethoaat|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ompxyl|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendealifatischeverbinding|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendealkaanachtigeverbinding|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendearomatischeverbinding|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendebroomverbinding|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendechloorverbinding|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendecycloalkaan|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendereeksftalaten|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendereekspropoxyverbindingen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendereekszuurstofverbindingen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendestikstofverbinding|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendeverbinding|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onbekendezuurstofverbinding|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onopgelostebestanddelen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/onp_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ont_s|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/opgelostebestanddelentds|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/opgelostorganischkoolstofdoc|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/opgl__vt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/oplosmiddelen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/opp_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/opvv_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/organischestofhumus|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/organischestofvandefractiekleinerdan2mm|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/organischkoolstof|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/os|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/oyfol_et|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/oyfolet|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/oyfolsom|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/p_esters|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_10|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_14|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_15|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_16|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_2|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_4|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_5|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_6|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_excl_naftaleen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_i|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pak_tot|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pbs|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pcb_28_31|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pcb_ind|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pcb_pct_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pcb_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pcb_t_pct_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pcdbd_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pcdbfur_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pcdd_pcdf|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pct_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/persist__min__olie|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/persistente_kws|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pesticiden_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pfc_exl_pfos__pfoa|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pfk_imjv_lucht|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pfoa_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pfos__pfba__pfbs|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pfos_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pft_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pox|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/profam_benzadol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pver_o|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pyrethroïden|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/s_t-h2s_rsh|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/s_t-sox|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/s=___merc_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sb_as_pb_cr_co_cu_mn_ni_v|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sb_as_pb_cr_co_cu_mn_ni_v_sn|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sb_pb_cr_cu_mn_v_sn|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sccp|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/se_v_u_th_te|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/selenas|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/siver_o|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sn_anorg_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sn_t_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/snver_ot|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sof|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/solvent|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/som1_1_1-trichloorethaan_per-_tri-entetrachloorethyleen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/som129_excl_ox|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sox|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sox_so2|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/sp_opp_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/stof_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/stoffr_no|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/stoffr_o|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/stoffr_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/surf_ion|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/surf_kid_nid|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/surf_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tam|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tap|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tas|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tbt|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tcee__dcee_tcea|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tcee__ttcee__dcma|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tcees|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tct|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tetracea|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tfysn_som|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/thm_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/thm_t_excl_3clethyl|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ti_t_|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tiverb_ot_-ti|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tmybz|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/toc|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tocl|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tox___pver_o|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tpht|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/triazine|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tricfolsom|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/trs|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/trs-s_so2-s|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ttcdbd_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/ttcdbfur_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/tvplds|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/uranimine|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vetextraheerbaar|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vetvrij|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vetzurensom|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vetzurenvluchtig|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vetzurenwaterdampvluchtig|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vl_sol|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vluchtigechloorkoolwaterstoffensom|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vluchtigeverbindingen|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vluchtigeveturenalsazijnzuur|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vocl_i|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vocl_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vos|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vox|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vox_i|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vpkalifatentotaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vpkaromatentotaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vpktotaal|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vrijalkali|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/vrijkoolzuur|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/wasbenzine|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/wateroplosbarestof|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/white-spirit|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/xnmvos_t|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/xyl__eybz|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/xyl__styr|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/zs|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/zs_as</t>
+  </si>
+  <si>
+    <t>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-sommatie_stoffen</t>
   </si>
 </sst>
 </file>
@@ -54241,7 +54244,7 @@
         <v>1594</v>
       </c>
       <c r="AC520" t="s">
-        <v>550</v>
+        <v>1595</v>
       </c>
       <c r="AD520" t="s">
         <v>550</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/sommatie_stoffen/sommatie_stoffen.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/sommatie_stoffen/sommatie_stoffen.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="codelijst chemische stoffen" r:id="rId3" sheetId="1"/>
+    <sheet name="codelijst sommatie stoffen" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
